--- a/src/assets/ExcelSample/GiaCaQuocTe.xlsx
+++ b/src/assets/ExcelSample/GiaCaQuocTe.xlsx
@@ -20,9 +20,6 @@
     <t>ID sản phẩm</t>
   </si>
   <si>
-    <t>Giá (VNĐ)</t>
-  </si>
-  <si>
     <t>Nguồn số liệu</t>
   </si>
   <si>
@@ -120,6 +117,9 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>Giá</t>
   </si>
 </sst>
 </file>
@@ -482,9 +482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -499,13 +497,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -516,10 +514,10 @@
         <v>1000</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -530,10 +528,10 @@
         <v>2000</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -544,10 +542,10 @@
         <v>3000</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -573,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -581,7 +579,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -589,7 +587,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -597,7 +595,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -605,7 +603,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -613,7 +611,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -621,7 +619,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -629,7 +627,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -637,7 +635,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -645,7 +643,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -653,7 +651,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -661,7 +659,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -669,7 +667,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -677,7 +675,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -685,7 +683,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -693,7 +691,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -701,7 +699,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -709,7 +707,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -717,7 +715,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -725,7 +723,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -733,7 +731,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -741,7 +739,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -749,7 +747,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -757,7 +755,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -765,7 +763,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -773,7 +771,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -781,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -789,7 +787,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -797,7 +795,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
